--- a/ReferredSites.xlsx
+++ b/ReferredSites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7950"/>
+    <workbookView windowWidth="14760" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>S.No</t>
   </si>
@@ -131,6 +131,21 @@
   </si>
   <si>
     <t>strongly type vs weekly type</t>
+  </si>
+  <si>
+    <t>DataReader...</t>
+  </si>
+  <si>
+    <t>ADO.NET</t>
+  </si>
+  <si>
+    <t>http://www.c-sharpcorner.com/blogs/difference-between-datareader-dataset-dataadapter-and-datatable-in-c-sharp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constructor </t>
+  </si>
+  <si>
+    <t>http://www.aspdotnet-suresh.com/2013/09/csharp-constructor-example-types-of-constructor-in-csharp.html</t>
   </si>
 </sst>
 </file>
@@ -138,9 +153,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -149,6 +164,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,22 +181,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +204,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -195,110 +295,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -311,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,9 +522,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,47 +555,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -602,20 +578,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,138 +640,144 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,288 +1099,324 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="37.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="12.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="166" customWidth="1"/>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="37.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="166" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7" s="1" customFormat="1" spans="1:4">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="8" s="1" customFormat="1" spans="1:4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+    <row r="9" s="1" customFormat="1" spans="1:4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="10" s="1" customFormat="1" spans="1:4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+    <row r="11" s="1" customFormat="1" spans="1:4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+    <row r="12" s="1" customFormat="1" spans="1:4">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+    <row r="13" s="1" customFormat="1" spans="1:4">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+    <row r="14" s="1" customFormat="1" spans="1:4">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:4">
-      <c r="A15">
+    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:4">
-      <c r="A16">
+    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:4">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+    <row r="17" s="1" customFormat="1" spans="1:4">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+    <row r="18" s="1" customFormat="1" spans="1:4">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
+    <row r="19" s="1" customFormat="1" spans="2:3">
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
+    <row r="20" s="1" customFormat="1" spans="2:3">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="21" s="1" customFormat="1" spans="1:4">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:4">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D18" r:id="rId1" display="http://www.c-sharpcorner.com/UploadFile/8ef97c/C-Sharp-net-interview-questions-and-answers/"/>
+    <hyperlink ref="D12" r:id="rId2" display="http://www.a2zinterviews.com/DotNet/csharp.net/csharpdotnet-interview-questions_23.php"/>
+    <hyperlink ref="D11" r:id="rId3" display="https://career.guru99.com/top-50-c-sharp-interview-questions-answers/"/>
+    <hyperlink ref="D14" r:id="rId4" display="http://www.geeksblood.com/asp-net-interview-questions-and-answers-for-2-5-years-experienced/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/ReferredSites.xlsx
+++ b/ReferredSites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14760" windowHeight="7950"/>
+    <workbookView windowWidth="15255" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$10</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>S.No</t>
   </si>
@@ -146,6 +146,30 @@
   </si>
   <si>
     <t>http://www.aspdotnet-suresh.com/2013/09/csharp-constructor-example-types-of-constructor-in-csharp.html</t>
+  </si>
+  <si>
+    <t>clustered-and-non-clustered-indexes</t>
+  </si>
+  <si>
+    <t>https://www.sqlshack.com/what-is-the-difference-between-clustered-and-non-clustered-indexes-in-sql-server/</t>
+  </si>
+  <si>
+    <t>normalization</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.in/dbms/database-normalization/#second-normal-form</t>
+  </si>
+  <si>
+    <t>tbl contains only one clustered</t>
+  </si>
+  <si>
+    <t>non clustered is allow more than on .. ex 999 non clustered columns is only after  sql 2008 accept</t>
+  </si>
+  <si>
+    <t>before only 246</t>
+  </si>
+  <si>
+    <t>https://www.toptal.com/sql/interview-questions</t>
   </si>
 </sst>
 </file>
@@ -153,9 +177,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -181,16 +205,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,9 +244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,16 +274,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,9 +312,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,44 +327,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,6 +350,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -338,13 +386,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,73 +422,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,31 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,43 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,13 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,15 +583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -579,26 +598,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,20 +623,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,145 +664,148 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1099,315 +1126,361 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="2" max="2" width="37.4285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="166" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="37.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="12.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="166" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:4">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:4">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:4">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:4">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:4">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:4">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:4">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A15" s="1">
+    <row r="15" ht="16.5" spans="1:4">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A16" s="1">
+    <row r="16" ht="16.5" spans="1:4">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:4">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="2:3">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="2:3">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:4">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4">
+      <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:4">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4">
+      <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" ht="45" spans="2:2">
+      <c r="B27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1416,6 +1489,7 @@
     <hyperlink ref="D12" r:id="rId2" display="http://www.a2zinterviews.com/DotNet/csharp.net/csharpdotnet-interview-questions_23.php"/>
     <hyperlink ref="D11" r:id="rId3" display="https://career.guru99.com/top-50-c-sharp-interview-questions-answers/"/>
     <hyperlink ref="D14" r:id="rId4" display="http://www.geeksblood.com/asp-net-interview-questions-and-answers-for-2-5-years-experienced/"/>
+    <hyperlink ref="D23" r:id="rId5" display="https://www.sqlshack.com/what-is-the-difference-between-clustered-and-non-clustered-indexes-in-sql-server/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
